--- a/S&P 500 Historical Return.xlsx
+++ b/S&P 500 Historical Return.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/S&P 500 Historical Return.xlsx
+++ b/S&P 500 Historical Return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>7.24%</t>
         </is>
       </c>
     </row>
@@ -1214,24 +1214,6 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>1999-2024</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>307.19%</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>4.59%</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/S&P 500 Historical Return.xlsx
+++ b/S&P 500 Historical Return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.24%</t>
+          <t>7.20%</t>
         </is>
       </c>
     </row>
@@ -1214,6 +1214,24 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1999-2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>307.19%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/S&P 500 Historical Return.xlsx
+++ b/S&P 500 Historical Return.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1957-1982</t>
+          <t>1957-1963</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>170.48%</t>
+          <t>57.65%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.20%</t>
+          <t>8.10%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1958-1983</t>
+          <t>1958-1964</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>248.05%</t>
+          <t>76.52%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1959-1984</t>
+          <t>1959-1965</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>178.70%</t>
+          <t>53.50%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -516,17 +516,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1960-1985</t>
+          <t>1960-1966</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>234.48%</t>
+          <t>52.43%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.47%</t>
+          <t>7.28%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -534,17 +534,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1961-1986</t>
+          <t>1961-1967</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>256.30%</t>
+          <t>38.74%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.84%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -552,17 +552,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1962-1987</t>
+          <t>1962-1968</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>364.18%</t>
+          <t>59.77%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5.31%</t>
+          <t>8.12%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -570,17 +570,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1963-1988</t>
+          <t>1963-1969</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>279.00%</t>
+          <t>40.42%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -588,17 +588,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1964-1989</t>
+          <t>1964-1970</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>296.49%</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>0.41%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -606,17 +606,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1965-1990</t>
+          <t>1965-1971</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>279.53%</t>
+          <t>11.55%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.20%</t>
+          <t>1.84%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -624,17 +624,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1966-1991</t>
+          <t>1966-1972</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>343.09%</t>
+          <t>28.73%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -642,17 +642,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1967-1992</t>
+          <t>1967-1973</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>350.77%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5.15%</t>
+          <t>2.69%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -660,17 +660,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1968-1993</t>
+          <t>1968-1974</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>358.24%</t>
+          <t>-15.39%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.24%</t>
+          <t>-2.75%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -678,17 +678,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1969-1994</t>
+          <t>1969-1975</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>370.00%</t>
+          <t>-11.69%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5.37%</t>
+          <t>-2.05%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -696,17 +696,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1970-1995</t>
+          <t>1970-1976</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>552.95%</t>
+          <t>22.99%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>3.51%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -714,17 +714,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1971-1996</t>
+          <t>1971-1977</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>579.98%</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>7.28%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -732,17 +732,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1972-1997</t>
+          <t>1972-1978</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>697.94%</t>
+          <t>-11.98%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>-2.10%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -750,17 +750,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1973-1998</t>
+          <t>1973-1979</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>912.51%</t>
+          <t>-3.69%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>-0.62%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -768,17 +768,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1974-1999</t>
+          <t>1974-1980</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1535.74%</t>
+          <t>47.62%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11.55%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -786,17 +786,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1975-2000</t>
+          <t>1975-1981</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1555.24%</t>
+          <t>49.35%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -804,17 +804,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1976-2001</t>
+          <t>1976-1982</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1072.82%</t>
+          <t>17.50%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>2.72%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -822,17 +822,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1977-2002</t>
+          <t>1977-1983</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>909.59%</t>
+          <t>63.49%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -840,17 +840,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1978-2003</t>
+          <t>1978-1984</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>900.82%</t>
+          <t>67.04%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -858,17 +858,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1979-2004</t>
+          <t>1979-1985</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>992.91%</t>
+          <t>81.21%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9.62%</t>
+          <t>10.42%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -876,17 +876,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1980-2005</t>
+          <t>1980-1986</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>924.06%</t>
+          <t>100.60%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>12.30%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -894,17 +894,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1981-2006</t>
+          <t>1981-1987</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>923.41%</t>
+          <t>124.02%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>14.39%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -912,17 +912,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1982-2007</t>
+          <t>1982-1988</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1140.32%</t>
+          <t>122.83%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10.23%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -930,17 +930,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1983-2008</t>
+          <t>1983-1989</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>663.27%</t>
+          <t>100.89%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7.86%</t>
+          <t>12.33%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -948,17 +948,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1984-2009</t>
+          <t>1984-1990</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>489.86%</t>
+          <t>109.09%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>13.08%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -966,17 +966,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1985-2010</t>
+          <t>1985-1991</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>509.06%</t>
+          <t>101.17%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>12.36%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -984,17 +984,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1986-2011</t>
+          <t>1986-1992</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>436.89%</t>
+          <t>75.78%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6.08%</t>
+          <t>9.86%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1002,17 +1002,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1987-2012</t>
+          <t>1987-1993</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>383.23%</t>
+          <t>58.86%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>8.02%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1020,17 +1020,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1988-2013</t>
+          <t>1988-1994</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>518.53%</t>
+          <t>73.49%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>9.62%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1038,17 +1038,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1989-2014</t>
+          <t>1989-1995</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>498.42%</t>
+          <t>67.43%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.64%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1056,17 +1056,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1990-2015</t>
+          <t>1990-1996</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>515.70%</t>
+          <t>100.65%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6.78%</t>
+          <t>12.31%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1074,17 +1074,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1991-2016</t>
+          <t>1991-1997</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>454.46%</t>
+          <t>131.51%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>15.02%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1092,17 +1092,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1992-2017</t>
+          <t>1992-1998</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>488.94%</t>
+          <t>160.95%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6.55%</t>
+          <t>17.33%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1110,17 +1110,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1993-2018</t>
+          <t>1993-1999</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>507.01%</t>
+          <t>193.42%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>19.65%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1128,17 +1128,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1994-2019</t>
+          <t>1994-2000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>531.94%</t>
+          <t>208.96%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>20.68%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1146,17 +1146,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1995-2020</t>
+          <t>1995-2001</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>492.43%</t>
+          <t>122.70%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6.58%</t>
+          <t>14.28%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1164,17 +1164,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1996-2021</t>
+          <t>1996-2002</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>536.65%</t>
+          <t>49.45%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>6.93%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1182,17 +1182,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1997-2022</t>
+          <t>1997-2003</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>375.40%</t>
+          <t>10.68%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5.43%</t>
+          <t>1.71%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1200,17 +1200,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1998-2023</t>
+          <t>1998-2004</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>295.04%</t>
+          <t>4.56%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.42%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1218,20 +1218,362 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1999-2024</t>
+          <t>1999-2005</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>307.19%</t>
+          <t>-8.86%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.59%</t>
+          <t>-1.53%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2000-2006</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-7.88%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-1.36%</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2001-2007</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>24.42%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3.71%</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2002-2008</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22.80%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2003-2009</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-2.03%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-0.34%</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2004-2010</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.74%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.12%</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2005-2011</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5.15%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2006-2012</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5.27%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2007-2013</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>11.24%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2008-2014</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>63.77%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8.57%</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2009-2015</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>120.89%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>14.12%</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2010-2016</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>83.66%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10.66%</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2011-2017</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>93.51%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>11.63%</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2012-2018</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>99.23%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12.17%</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2013-2019</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>77.23%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10.01%</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2014-2020</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>66.01%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8.82%</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2015-2021</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>107.02%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>12.89%</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2016-2022</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>96.84%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>11.95%</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2017-2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>74.80%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9.75%</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2018-2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>97.48%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>12.01%</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
